--- a/clusteredmaincolor.xlsx
+++ b/clusteredmaincolor.xlsx
@@ -424,35 +424,35 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>35.763636363636344 31.05454545454547 34.61818181818182</t>
+          <t>0.6428571428571459 0.7142857142857082 0.4999999999999929</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>254.16666666666666 254.33333333333331 254.66666666666666</t>
+          <t>87.95238095238096 74.28571428571428 77.3809523809524</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1.1666666666666572 1.5 1.8333333333333357</t>
+          <t>214.0 215.5 216.5</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>65.88888888888889 62.111111111111114 64.44444444444444</t>
+          <t>43.40540540540541 27.08108108108107 37.702702702702695</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>98.0 129.0 156.5</t>
+          <t>27.285714285714292 20.857142857142858 147.7142857142857</t>
         </is>
       </c>
     </row>
